--- a/FRR-KDF17/CO_Secundario.xlsx
+++ b/FRR-KDF17/CO_Secundario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtinoco2\Downloads\Failures-PMI\FRR-KDF17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\Failures-PMI\FRR-KDF17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BF1F17-F78E-466F-B2FB-B62BD32977E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268DF8C-480D-4522-B61E-5651E32BD34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0E4395FA-C1B7-4F77-AE6F-14E476689B92}"/>
+    <workbookView xWindow="1536" yWindow="0" windowWidth="20784" windowHeight="12240" xr2:uid="{0E4395FA-C1B7-4F77-AE6F-14E476689B92}"/>
   </bookViews>
   <sheets>
     <sheet name="B9 CO" sheetId="1" r:id="rId1"/>
@@ -50,25 +50,25 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{413F85CE-2203-40E1-86EF-77673E235DD4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Inicio d egestion con Cell 4</t>
       </text>
     </comment>
     <comment ref="W26" authorId="1" shapeId="0" xr:uid="{8835B927-4E68-406E-AE5A-DD455B22AC16}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Llenado por Becario, validar</t>
       </text>
     </comment>
     <comment ref="I178" authorId="2" shapeId="0" xr:uid="{D7B33786-9A49-4CFE-9F2B-36BF8E55F0F1}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Me falto el número de liga se da retro al coordinador </t>
       </text>
     </comment>
@@ -5134,7 +5134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5193,12 +5193,6 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5401,7 +5395,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -5543,7 +5537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5875,34 +5869,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D319EA-6073-4DD8-992C-5736F876E59D}">
   <dimension ref="A1:Z276"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.36328125" customWidth="1"/>
-    <col min="17" max="17" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="94.6328125" customWidth="1"/>
-    <col min="19" max="19" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="62.90625" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.33203125" customWidth="1"/>
+    <col min="17" max="17" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="94.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="62.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5976,7 +5970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45664</v>
       </c>
@@ -6040,7 +6034,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>45665</v>
       </c>
@@ -6106,7 +6100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>45666</v>
       </c>
@@ -6172,7 +6166,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>45666</v>
       </c>
@@ -6240,7 +6234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>45666</v>
       </c>
@@ -6306,7 +6300,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>45666</v>
       </c>
@@ -6370,7 +6364,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>45666</v>
       </c>
@@ -6438,7 +6432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>45667</v>
       </c>
@@ -6504,7 +6498,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>45668</v>
       </c>
@@ -6570,7 +6564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="196.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45671</v>
       </c>
@@ -6636,7 +6630,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>45671</v>
       </c>
@@ -6702,7 +6696,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="16"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>45672</v>
       </c>
@@ -6768,7 +6762,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="16"/>
     </row>
-    <row r="14" spans="1:24" ht="182.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>45672</v>
       </c>
@@ -6829,7 +6823,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>45673</v>
       </c>
@@ -6895,7 +6889,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>45673</v>
       </c>
@@ -6963,7 +6957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>45673</v>
       </c>
@@ -7031,7 +7025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>45677</v>
       </c>
@@ -7082,7 +7076,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" ht="336.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>45679</v>
       </c>
@@ -7152,7 +7146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>45679</v>
       </c>
@@ -7214,7 +7208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>45681</v>
       </c>
@@ -7276,7 +7270,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="16"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>45681</v>
       </c>
@@ -7340,7 +7334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>45681</v>
       </c>
@@ -7402,7 +7396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>45681</v>
       </c>
@@ -7459,7 +7453,7 @@
       <c r="W24" s="15"/>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>45681</v>
       </c>
@@ -7520,7 +7514,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>45685</v>
       </c>
@@ -7569,7 +7563,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>45685</v>
       </c>
@@ -7614,7 +7608,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>45686</v>
       </c>
@@ -7675,7 +7669,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>45686</v>
       </c>
@@ -7729,7 +7723,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>45699</v>
       </c>
@@ -7795,7 +7789,7 @@
       <c r="W30" s="15"/>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>45699</v>
       </c>
@@ -7858,7 +7852,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>45700</v>
       </c>
@@ -7926,7 +7920,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>45702</v>
       </c>
@@ -7990,7 +7984,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>45707</v>
       </c>
@@ -8054,7 +8048,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>45708</v>
       </c>
@@ -8122,7 +8116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>45708</v>
       </c>
@@ -8190,7 +8184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>45709</v>
       </c>
@@ -8258,7 +8252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>45709</v>
       </c>
@@ -8326,7 +8320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>45712</v>
       </c>
@@ -8392,7 +8386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>45712</v>
       </c>
@@ -8458,7 +8452,7 @@
       <c r="W40" s="15"/>
       <c r="X40" s="16"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>45712</v>
       </c>
@@ -8522,7 +8516,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>45712</v>
       </c>
@@ -8588,7 +8582,7 @@
       <c r="W42" s="15"/>
       <c r="X42" s="16"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>45713</v>
       </c>
@@ -8654,7 +8648,7 @@
       <c r="W43" s="15"/>
       <c r="X43" s="16"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>45713</v>
       </c>
@@ -8720,7 +8714,7 @@
       <c r="W44" s="15"/>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>45714</v>
       </c>
@@ -8784,7 +8778,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45714</v>
       </c>
@@ -8852,7 +8846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>45715</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>45716</v>
       </c>
@@ -8982,7 +8976,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="16"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>45728</v>
       </c>
@@ -9044,7 +9038,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="16"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>45728</v>
       </c>
@@ -9112,7 +9106,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>45728</v>
       </c>
@@ -9176,7 +9170,7 @@
       <c r="W51" s="15"/>
       <c r="X51" s="16"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>45728</v>
       </c>
@@ -9244,7 +9238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>45729</v>
       </c>
@@ -9310,7 +9304,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>45734</v>
       </c>
@@ -9376,7 +9370,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>45734</v>
       </c>
@@ -9442,7 +9436,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>45735</v>
       </c>
@@ -9508,7 +9502,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>45736</v>
       </c>
@@ -9560,7 +9554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>45737</v>
       </c>
@@ -9626,7 +9620,7 @@
       <c r="W58" s="15"/>
       <c r="X58" s="16"/>
     </row>
-    <row r="59" spans="1:24" ht="224.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>45738</v>
       </c>
@@ -9685,7 +9679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="196.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>45751</v>
       </c>
@@ -9753,7 +9747,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>45757</v>
       </c>
@@ -9819,7 +9813,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>45754</v>
       </c>
@@ -9878,7 +9872,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>45754</v>
       </c>
@@ -9940,7 +9934,7 @@
       <c r="W63" s="15"/>
       <c r="X63" s="16"/>
     </row>
-    <row r="64" spans="1:24" ht="182.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>45757</v>
       </c>
@@ -10006,7 +10000,7 @@
       <c r="W64" s="15"/>
       <c r="X64" s="16"/>
     </row>
-    <row r="65" spans="1:26" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>45768</v>
       </c>
@@ -10067,7 +10061,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="392.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>45770</v>
       </c>
@@ -10135,7 +10129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>45770</v>
       </c>
@@ -10197,7 +10191,7 @@
       <c r="W67" s="15"/>
       <c r="X67" s="16"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>45770</v>
       </c>
@@ -10261,7 +10255,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="111" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>45770</v>
       </c>
@@ -10327,7 +10321,7 @@
       <c r="W69" s="15"/>
       <c r="X69" s="16"/>
     </row>
-    <row r="70" spans="1:26" ht="196.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>45771</v>
       </c>
@@ -10393,7 +10387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>45771</v>
       </c>
@@ -10457,7 +10451,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="350.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>45771</v>
       </c>
@@ -10523,7 +10517,7 @@
       <c r="W72" s="15"/>
       <c r="X72" s="16"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>45771</v>
       </c>
@@ -10589,7 +10583,7 @@
       <c r="W73" s="15"/>
       <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:26" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>45772</v>
       </c>
@@ -10655,7 +10649,7 @@
       <c r="W74" s="15"/>
       <c r="X74" s="16"/>
     </row>
-    <row r="75" spans="1:26" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>45775</v>
       </c>
@@ -10719,7 +10713,7 @@
       <c r="W75" s="15"/>
       <c r="X75" s="16"/>
     </row>
-    <row r="76" spans="1:26" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>45775</v>
       </c>
@@ -10783,7 +10777,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="42" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>45775</v>
       </c>
@@ -10849,7 +10843,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>45776</v>
       </c>
@@ -10915,7 +10909,7 @@
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
     </row>
-    <row r="79" spans="1:26" ht="210.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>45776</v>
       </c>
@@ -10981,7 +10975,7 @@
       <c r="Y79" s="16"/>
       <c r="Z79" s="16"/>
     </row>
-    <row r="80" spans="1:26" ht="322.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="42" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>45776</v>
       </c>
@@ -11043,7 +11037,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>45783</v>
       </c>
@@ -11103,7 +11097,7 @@
       <c r="W81" s="15"/>
       <c r="X81" s="16"/>
     </row>
-    <row r="82" spans="1:24" ht="322.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>45789</v>
       </c>
@@ -11169,7 +11163,7 @@
       <c r="W82" s="15"/>
       <c r="X82" s="16"/>
     </row>
-    <row r="83" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>45789</v>
       </c>
@@ -11233,7 +11227,7 @@
       <c r="W83" s="15"/>
       <c r="X83" s="16"/>
     </row>
-    <row r="84" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>45789</v>
       </c>
@@ -11297,7 +11291,7 @@
       <c r="W84" s="15"/>
       <c r="X84" s="16"/>
     </row>
-    <row r="85" spans="1:24" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>45789</v>
       </c>
@@ -11363,7 +11357,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="238.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>45790</v>
       </c>
@@ -11429,7 +11423,7 @@
       <c r="W86" s="15"/>
       <c r="X86" s="16"/>
     </row>
-    <row r="87" spans="1:24" ht="224.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>45790</v>
       </c>
@@ -11495,7 +11489,7 @@
       <c r="W87" s="15"/>
       <c r="X87" s="16"/>
     </row>
-    <row r="88" spans="1:24" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>45791</v>
       </c>
@@ -11559,7 +11553,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>45790</v>
       </c>
@@ -11623,7 +11617,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="196.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>45791</v>
       </c>
@@ -11689,7 +11683,7 @@
       <c r="W90" s="15"/>
       <c r="X90" s="16"/>
     </row>
-    <row r="91" spans="1:24" ht="154.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>45794</v>
       </c>
@@ -11755,7 +11749,7 @@
       <c r="W91" s="15"/>
       <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:24" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>45792</v>
       </c>
@@ -11821,7 +11815,7 @@
       <c r="W92" s="15"/>
       <c r="X92" s="16"/>
     </row>
-    <row r="93" spans="1:24" ht="224.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>45793</v>
       </c>
@@ -11887,7 +11881,7 @@
       <c r="W93" s="15"/>
       <c r="X93" s="16"/>
     </row>
-    <row r="94" spans="1:24" ht="406.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>45800</v>
       </c>
@@ -11951,7 +11945,7 @@
       <c r="W94" s="15"/>
       <c r="X94" s="16"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>45800</v>
       </c>
@@ -12011,7 +12005,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>45801</v>
       </c>
@@ -12069,7 +12063,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>45803</v>
       </c>
@@ -12127,7 +12121,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>45803</v>
       </c>
@@ -12191,7 +12185,7 @@
       <c r="W98" s="15"/>
       <c r="X98" s="16"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>45804</v>
       </c>
@@ -12249,7 +12243,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="280.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>45804</v>
       </c>
@@ -12309,7 +12303,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="224.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>45804</v>
       </c>
@@ -12375,7 +12369,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="154.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>45805</v>
       </c>
@@ -12441,7 +12435,7 @@
       <c r="W102" s="15"/>
       <c r="X102" s="16"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>45806</v>
       </c>
@@ -12507,7 +12501,7 @@
       <c r="W103" s="15"/>
       <c r="X103" s="16"/>
     </row>
-    <row r="104" spans="1:24" ht="364.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>45806</v>
       </c>
@@ -12575,7 +12569,7 @@
       <c r="W104" s="15"/>
       <c r="X104" s="16"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>45807</v>
       </c>
@@ -12641,7 +12635,7 @@
       <c r="W105" s="15"/>
       <c r="X105" s="16"/>
     </row>
-    <row r="106" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>45810</v>
       </c>
@@ -12707,7 +12701,7 @@
       <c r="W106" s="15"/>
       <c r="X106" s="16"/>
     </row>
-    <row r="107" spans="1:24" ht="182.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>45812</v>
       </c>
@@ -12775,7 +12769,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="182.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>45813</v>
       </c>
@@ -12841,7 +12835,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>45813</v>
       </c>
@@ -12907,7 +12901,7 @@
       <c r="W109" s="15"/>
       <c r="X109" s="16"/>
     </row>
-    <row r="110" spans="1:24" ht="182.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>45814</v>
       </c>
@@ -12973,7 +12967,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>45815</v>
       </c>
@@ -13031,7 +13025,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="266.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>45817</v>
       </c>
@@ -13097,7 +13091,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="308.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>45819</v>
       </c>
@@ -13154,7 +13148,7 @@
       <c r="W113" s="15"/>
       <c r="X113" s="16"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>45817</v>
       </c>
@@ -13213,7 +13207,7 @@
       <c r="W114" s="15"/>
       <c r="X114" s="16"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>45817</v>
       </c>
@@ -13266,7 +13260,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>45826</v>
       </c>
@@ -13336,7 +13330,7 @@
       </c>
       <c r="X116" s="16"/>
     </row>
-    <row r="117" spans="1:24" ht="98.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>45831</v>
       </c>
@@ -13404,7 +13398,7 @@
       </c>
       <c r="X117" s="16"/>
     </row>
-    <row r="118" spans="1:24" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>45832</v>
       </c>
@@ -13470,7 +13464,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>45835</v>
       </c>
@@ -13532,7 +13526,7 @@
       <c r="W119" s="15"/>
       <c r="X119" s="16"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>45832</v>
       </c>
@@ -13602,7 +13596,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="322.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>45833</v>
       </c>
@@ -13668,7 +13662,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>45832</v>
       </c>
@@ -13718,7 +13712,7 @@
       <c r="W122" s="15"/>
       <c r="X122" s="16"/>
     </row>
-    <row r="123" spans="1:24" ht="266.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>45835</v>
       </c>
@@ -13778,7 +13772,7 @@
       <c r="W123" s="15"/>
       <c r="X123" s="16"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>45835</v>
       </c>
@@ -13848,7 +13842,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>45838</v>
       </c>
@@ -13918,7 +13912,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>45838</v>
       </c>
@@ -13984,7 +13978,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>45838</v>
       </c>
@@ -14050,7 +14044,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>45839</v>
       </c>
@@ -14114,7 +14108,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>45839</v>
       </c>
@@ -14180,7 +14174,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>45842</v>
       </c>
@@ -14246,7 +14240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
         <v>45848</v>
       </c>
@@ -14312,7 +14306,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
         <v>45849</v>
       </c>
@@ -14374,7 +14368,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="280.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
         <v>45848</v>
       </c>
@@ -14440,7 +14434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="56.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
         <v>45848</v>
       </c>
@@ -14506,7 +14500,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
         <v>45854</v>
       </c>
@@ -14576,7 +14570,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>45855</v>
       </c>
@@ -14636,7 +14630,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="238.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>45862</v>
       </c>
@@ -14706,7 +14700,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
         <v>45863</v>
       </c>
@@ -14776,7 +14770,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="392.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
         <v>45862</v>
       </c>
@@ -14846,7 +14840,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>45861</v>
       </c>
@@ -14906,7 +14900,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
         <v>45860</v>
       </c>
@@ -14976,7 +14970,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="224.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
         <v>45863</v>
       </c>
@@ -15042,7 +15036,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="280.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>45874</v>
       </c>
@@ -15112,7 +15106,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>45873</v>
       </c>
@@ -15182,7 +15176,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>45875</v>
       </c>
@@ -15252,7 +15246,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
         <v>45875</v>
       </c>
@@ -15322,7 +15316,7 @@
       </c>
       <c r="X146" s="16"/>
     </row>
-    <row r="147" spans="1:24" ht="238.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
         <v>45877</v>
       </c>
@@ -15392,7 +15386,7 @@
       </c>
       <c r="X147" s="16"/>
     </row>
-    <row r="148" spans="1:24" ht="210.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>45875</v>
       </c>
@@ -15464,7 +15458,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>45880</v>
       </c>
@@ -15534,7 +15528,7 @@
       </c>
       <c r="X149" s="16"/>
     </row>
-    <row r="150" spans="1:24" ht="308.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>45880</v>
       </c>
@@ -15602,7 +15596,7 @@
       </c>
       <c r="X150" s="16"/>
     </row>
-    <row r="151" spans="1:24" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>45880</v>
       </c>
@@ -15672,7 +15666,7 @@
       </c>
       <c r="X151" s="16"/>
     </row>
-    <row r="152" spans="1:24" ht="322.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
         <v>45881</v>
       </c>
@@ -15742,7 +15736,7 @@
       </c>
       <c r="X152" s="16"/>
     </row>
-    <row r="153" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" ht="111" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
         <v>45881</v>
       </c>
@@ -15812,7 +15806,7 @@
       </c>
       <c r="X153" s="16"/>
     </row>
-    <row r="154" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>45881</v>
       </c>
@@ -15884,7 +15878,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="392.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>45887</v>
       </c>
@@ -15954,7 +15948,7 @@
       </c>
       <c r="X155" s="16"/>
     </row>
-    <row r="156" spans="1:24" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
         <v>45888</v>
       </c>
@@ -16024,7 +16018,7 @@
       </c>
       <c r="X156" s="16"/>
     </row>
-    <row r="157" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
         <v>45889</v>
       </c>
@@ -16094,7 +16088,7 @@
       </c>
       <c r="X157" s="16"/>
     </row>
-    <row r="158" spans="1:24" ht="168.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
         <v>45882</v>
       </c>
@@ -16162,7 +16156,7 @@
       </c>
       <c r="X158" s="16"/>
     </row>
-    <row r="159" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
         <v>45894</v>
       </c>
@@ -16228,7 +16222,7 @@
       </c>
       <c r="X159" s="16"/>
     </row>
-    <row r="160" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
         <v>45895</v>
       </c>
@@ -16294,7 +16288,7 @@
       </c>
       <c r="X160" s="16"/>
     </row>
-    <row r="161" spans="1:24" ht="56.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
         <v>45896</v>
       </c>
@@ -16364,7 +16358,7 @@
       </c>
       <c r="X161" s="16"/>
     </row>
-    <row r="162" spans="1:24" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>45897</v>
       </c>
@@ -16428,7 +16422,7 @@
       <c r="W162" s="15"/>
       <c r="X162" s="16"/>
     </row>
-    <row r="163" spans="1:24" ht="84.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
         <v>45897</v>
       </c>
@@ -16496,7 +16490,7 @@
       </c>
       <c r="X163" s="16"/>
     </row>
-    <row r="164" spans="1:24" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
         <v>45899</v>
       </c>
@@ -16564,7 +16558,7 @@
       </c>
       <c r="X164" s="16"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
         <v>45901</v>
       </c>
@@ -16632,7 +16626,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A166" s="17">
         <v>45903</v>
       </c>
@@ -16704,7 +16698,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>45902</v>
       </c>
@@ -16774,7 +16768,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="378.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>45901</v>
       </c>
@@ -16844,7 +16838,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="140.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
         <v>45901</v>
       </c>
@@ -16914,7 +16908,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="56.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
         <v>45901</v>
       </c>
@@ -16984,7 +16978,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
         <v>45866</v>
       </c>
@@ -17044,7 +17038,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="238.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>45868</v>
       </c>
@@ -17114,7 +17108,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>45868</v>
       </c>
@@ -17186,7 +17180,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="210.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
         <v>45869</v>
       </c>
@@ -17256,7 +17250,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
         <v>45871</v>
       </c>
@@ -17328,7 +17322,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" s="17">
         <v>45904</v>
       </c>
@@ -17396,7 +17390,7 @@
       </c>
       <c r="X176" s="16"/>
     </row>
-    <row r="177" spans="1:24" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
         <v>45904</v>
       </c>
@@ -17464,7 +17458,7 @@
       </c>
       <c r="X177" s="16"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178" s="17">
         <v>45904</v>
       </c>
@@ -17532,7 +17526,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A179" s="17">
         <v>45905</v>
       </c>
@@ -17604,7 +17598,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
         <v>45908</v>
       </c>
@@ -17676,7 +17670,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
         <v>45912</v>
       </c>
@@ -17725,7 +17719,7 @@
       <c r="W181" s="15"/>
       <c r="X181" s="16"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" s="17">
         <v>45927</v>
       </c>
@@ -17795,7 +17789,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" s="17">
         <v>45927</v>
       </c>
@@ -17865,7 +17859,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" s="17">
         <v>45926</v>
       </c>
@@ -17935,7 +17929,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" s="17">
         <v>45924</v>
       </c>
@@ -18005,7 +17999,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
         <v>45925</v>
       </c>
@@ -18071,7 +18065,7 @@
       </c>
       <c r="X186" s="16"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" s="17">
         <v>45929</v>
       </c>
@@ -18139,7 +18133,7 @@
       </c>
       <c r="X187" s="16"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" s="17">
         <v>45938</v>
       </c>
@@ -18209,7 +18203,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
         <v>45937</v>
       </c>
@@ -18275,7 +18269,7 @@
       </c>
       <c r="X189" s="16"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" s="17">
         <v>45937</v>
       </c>
@@ -18341,7 +18335,7 @@
       </c>
       <c r="X190" s="16"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" s="17">
         <v>45937</v>
       </c>
@@ -18411,7 +18405,7 @@
       </c>
       <c r="X191" s="16"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" s="17">
         <v>45931</v>
       </c>
@@ -18479,7 +18473,7 @@
       </c>
       <c r="X192" s="16"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>45931</v>
       </c>
@@ -18547,7 +18541,7 @@
       </c>
       <c r="X193" s="16"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
         <v>45938</v>
       </c>
@@ -18613,7 +18607,7 @@
       </c>
       <c r="X194" s="16"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
         <v>45937</v>
       </c>
@@ -18679,7 +18673,7 @@
       </c>
       <c r="X195" s="16"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
         <v>45937</v>
       </c>
@@ -18747,7 +18741,7 @@
       </c>
       <c r="X196" s="16"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" s="17">
         <v>45937</v>
       </c>
@@ -18813,7 +18807,7 @@
       </c>
       <c r="X197" s="16"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" s="17">
         <v>45937</v>
       </c>
@@ -18881,7 +18875,7 @@
       </c>
       <c r="X198" s="16"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" s="17">
         <v>45932</v>
       </c>
@@ -18947,7 +18941,7 @@
       </c>
       <c r="X199" s="16"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" s="17">
         <v>45902</v>
       </c>
@@ -19003,7 +18997,7 @@
       <c r="W200" s="15"/>
       <c r="X200" s="16"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" s="17">
         <v>45944</v>
       </c>
@@ -19073,7 +19067,7 @@
       </c>
       <c r="X201" s="16"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" s="17">
         <v>45944</v>
       </c>
@@ -19143,7 +19137,7 @@
       </c>
       <c r="X202" s="16"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" s="17">
         <v>45954</v>
       </c>
@@ -19211,7 +19205,7 @@
       </c>
       <c r="X203" s="16"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" s="17">
         <v>45954</v>
       </c>
@@ -19279,7 +19273,7 @@
       </c>
       <c r="X204" s="16"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" s="17">
         <v>45951</v>
       </c>
@@ -19349,7 +19343,7 @@
       </c>
       <c r="X205" s="16"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" s="17">
         <v>45960</v>
       </c>
@@ -19417,7 +19411,7 @@
       </c>
       <c r="X206" s="16"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" s="17">
         <v>45959</v>
       </c>
@@ -19487,7 +19481,7 @@
       </c>
       <c r="X207" s="16"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" s="17">
         <v>45959</v>
       </c>
@@ -19557,7 +19551,7 @@
       </c>
       <c r="X208" s="16"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" s="17">
         <v>45958</v>
       </c>
@@ -19623,7 +19617,7 @@
       </c>
       <c r="X209" s="16"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" s="17">
         <v>45957</v>
       </c>
@@ -19691,7 +19685,7 @@
       </c>
       <c r="X210" s="16"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" s="17">
         <v>45957</v>
       </c>
@@ -19761,7 +19755,7 @@
       </c>
       <c r="X211" s="16"/>
     </row>
-    <row r="212" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" s="17">
         <v>45964</v>
       </c>
@@ -19831,7 +19825,7 @@
       </c>
       <c r="X212" s="16"/>
     </row>
-    <row r="213" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" s="17">
         <v>45965</v>
       </c>
@@ -19901,7 +19895,7 @@
       </c>
       <c r="X213" s="16"/>
     </row>
-    <row r="214" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" s="17">
         <v>45964</v>
       </c>
@@ -19971,7 +19965,7 @@
       </c>
       <c r="X214" s="16"/>
     </row>
-    <row r="215" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" s="17">
         <v>45964</v>
       </c>
@@ -20037,7 +20031,7 @@
       </c>
       <c r="X215" s="16"/>
     </row>
-    <row r="216" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
         <v>45964</v>
       </c>
@@ -20107,7 +20101,7 @@
       </c>
       <c r="X216" s="16"/>
     </row>
-    <row r="217" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" s="17">
         <v>45964</v>
       </c>
@@ -20173,7 +20167,7 @@
       </c>
       <c r="X217" s="16"/>
     </row>
-    <row r="218" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" s="17">
         <v>45960</v>
       </c>
@@ -20243,7 +20237,7 @@
       </c>
       <c r="X218" s="16"/>
     </row>
-    <row r="219" spans="1:24" ht="28" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" s="17">
         <v>45964</v>
       </c>
@@ -20313,7 +20307,7 @@
       </c>
       <c r="X219" s="16"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" s="17">
         <v>45975</v>
       </c>
@@ -20367,7 +20361,7 @@
       <c r="W220" s="15"/>
       <c r="X220" s="16"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" s="17">
         <v>45974</v>
       </c>
@@ -20435,7 +20429,7 @@
       </c>
       <c r="X221" s="16"/>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" s="17">
         <v>45983</v>
       </c>
@@ -20503,7 +20497,7 @@
       </c>
       <c r="X222" s="16"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" s="17">
         <v>45983</v>
       </c>
@@ -20569,7 +20563,7 @@
       </c>
       <c r="X223" s="16"/>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224" s="17">
         <v>45983</v>
       </c>
@@ -20637,7 +20631,7 @@
       </c>
       <c r="X224" s="16"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" s="17">
         <v>45982</v>
       </c>
@@ -20707,7 +20701,7 @@
       </c>
       <c r="X225" s="16"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" s="17">
         <v>45982</v>
       </c>
@@ -20775,7 +20769,7 @@
       </c>
       <c r="X226" s="16"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" s="17">
         <v>45982</v>
       </c>
@@ -20843,7 +20837,7 @@
       </c>
       <c r="X227" s="16"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" s="17">
         <v>45983</v>
       </c>
@@ -20913,7 +20907,7 @@
       </c>
       <c r="X228" s="16"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" s="17">
         <v>45985</v>
       </c>
@@ -20981,7 +20975,7 @@
       </c>
       <c r="X229" s="16"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" s="17">
         <v>45985</v>
       </c>
@@ -21049,7 +21043,7 @@
       </c>
       <c r="X230" s="16"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" s="17">
         <v>45983</v>
       </c>
@@ -21117,7 +21111,7 @@
       </c>
       <c r="X231" s="16"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" s="17">
         <v>45975</v>
       </c>
@@ -21183,7 +21177,7 @@
       </c>
       <c r="X232" s="16"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" s="17">
         <v>45981</v>
       </c>
@@ -21243,7 +21237,7 @@
       <c r="W233" s="15"/>
       <c r="X233" s="16"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" s="17">
         <v>45988</v>
       </c>
@@ -21309,7 +21303,7 @@
       </c>
       <c r="X234" s="16"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" s="17">
         <v>45988</v>
       </c>
@@ -21379,7 +21373,7 @@
       </c>
       <c r="X235" s="16"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" s="17">
         <v>45981</v>
       </c>
@@ -21441,7 +21435,7 @@
       <c r="W236" s="15"/>
       <c r="X236" s="16"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" s="17">
         <v>45993</v>
       </c>
@@ -21505,7 +21499,7 @@
       </c>
       <c r="X237" s="16"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" s="17">
         <v>45994</v>
       </c>
@@ -21571,7 +21565,7 @@
       </c>
       <c r="X238" s="16"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" s="17">
         <v>45994</v>
       </c>
@@ -21641,7 +21635,7 @@
       </c>
       <c r="X239" s="16"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" s="17">
         <v>45994</v>
       </c>
@@ -21707,7 +21701,7 @@
       </c>
       <c r="X240" s="16"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" s="17">
         <v>45990</v>
       </c>
@@ -21775,7 +21769,7 @@
       </c>
       <c r="X241" s="16"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
         <v>45995</v>
       </c>
@@ -21843,7 +21837,7 @@
       </c>
       <c r="X242" s="16"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" s="17">
         <v>45994</v>
       </c>
@@ -21909,7 +21903,7 @@
       </c>
       <c r="X243" s="16"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" s="17">
         <v>45995</v>
       </c>
@@ -21977,7 +21971,7 @@
       </c>
       <c r="X244" s="16"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" s="17">
         <v>45995</v>
       </c>
@@ -22047,7 +22041,7 @@
       </c>
       <c r="X245" s="16"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" s="17">
         <v>45995</v>
       </c>
@@ -22117,7 +22111,7 @@
       </c>
       <c r="X246" s="16"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" s="17">
         <v>45995</v>
       </c>
@@ -22183,7 +22177,7 @@
       </c>
       <c r="X247" s="16"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" s="17">
         <v>45995</v>
       </c>
@@ -22247,7 +22241,7 @@
       </c>
       <c r="X248" s="16"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" s="17">
         <v>45994</v>
       </c>
@@ -22317,7 +22311,7 @@
       </c>
       <c r="X249" s="16"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" s="17">
         <v>45995</v>
       </c>
@@ -22383,7 +22377,7 @@
       </c>
       <c r="X250" s="16"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" s="17">
         <v>45996</v>
       </c>
@@ -22449,7 +22443,7 @@
       </c>
       <c r="X251" s="16"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" s="17">
         <v>46000</v>
       </c>
@@ -22517,7 +22511,7 @@
       </c>
       <c r="X252" s="16"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" s="17">
         <v>46001</v>
       </c>
@@ -22583,7 +22577,7 @@
       </c>
       <c r="X253" s="16"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" s="17">
         <v>46002</v>
       </c>
@@ -22653,7 +22647,7 @@
       </c>
       <c r="X254" s="16"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" s="17">
         <v>45982</v>
       </c>
@@ -22717,7 +22711,7 @@
       </c>
       <c r="X255" s="16"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" s="17">
         <v>46008</v>
       </c>
@@ -22785,7 +22779,7 @@
       </c>
       <c r="X256" s="16"/>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" s="17">
         <v>45996</v>
       </c>
@@ -22853,7 +22847,7 @@
       </c>
       <c r="X257" s="16"/>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" s="17">
         <v>45996</v>
       </c>
@@ -22921,7 +22915,7 @@
       </c>
       <c r="X258" s="16"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" s="17">
         <v>45996</v>
       </c>
@@ -22989,7 +22983,7 @@
       </c>
       <c r="X259" s="16"/>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" s="17">
         <v>45997</v>
       </c>
@@ -23057,7 +23051,7 @@
       </c>
       <c r="X260" s="16"/>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" s="17">
         <v>46009</v>
       </c>
@@ -23125,7 +23119,7 @@
       </c>
       <c r="X261" s="16"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" s="17">
         <v>46006</v>
       </c>
@@ -23193,7 +23187,7 @@
       </c>
       <c r="X262" s="16"/>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" s="17">
         <v>46006</v>
       </c>
@@ -23261,7 +23255,7 @@
       </c>
       <c r="X263" s="16"/>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" s="17">
         <v>46035</v>
       </c>
@@ -23329,7 +23323,7 @@
       </c>
       <c r="X264" s="16"/>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" s="17">
         <v>46049</v>
       </c>
@@ -23397,7 +23391,7 @@
       </c>
       <c r="X265" s="16"/>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" s="17">
         <v>46043</v>
       </c>
@@ -23447,7 +23441,7 @@
       <c r="W266" s="15"/>
       <c r="X266" s="16"/>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" s="17">
         <v>46038</v>
       </c>
@@ -23515,7 +23509,7 @@
       </c>
       <c r="X267" s="16"/>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" s="17">
         <v>46044</v>
       </c>
@@ -23581,7 +23575,7 @@
       </c>
       <c r="X268" s="16"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" s="17">
         <v>46045</v>
       </c>
@@ -23649,7 +23643,7 @@
       </c>
       <c r="X269" s="16"/>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" s="17" t="s">
         <v>641</v>
       </c>
@@ -23719,7 +23713,7 @@
       </c>
       <c r="X270" s="16"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" s="17">
         <v>46049</v>
       </c>
@@ -23789,7 +23783,7 @@
       </c>
       <c r="X271" s="16"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A272" s="17">
         <v>46045</v>
       </c>
@@ -23855,7 +23849,7 @@
       </c>
       <c r="X272" s="16"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" s="17">
         <v>46045</v>
       </c>
@@ -23923,7 +23917,7 @@
       </c>
       <c r="X273" s="16"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" s="17">
         <v>46050</v>
       </c>
@@ -23991,7 +23985,7 @@
       </c>
       <c r="X274" s="16"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" s="17">
         <v>46043</v>
       </c>
@@ -24051,7 +24045,7 @@
       </c>
       <c r="X275" s="16"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
@@ -24116,32 +24110,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6DEF2E-C696-4EE8-92E4-87D93B2BB37A}">
   <dimension ref="A1:X419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="29.453125" customWidth="1"/>
-    <col min="18" max="18" width="29.90625" customWidth="1"/>
-    <col min="19" max="20" width="16.36328125" customWidth="1"/>
-    <col min="21" max="21" width="11.90625" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="29.44140625" customWidth="1"/>
+    <col min="18" max="18" width="29.88671875" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24215,7 +24209,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>45803</v>
       </c>
@@ -24281,7 +24275,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>45803</v>
       </c>
@@ -24347,7 +24341,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>45803</v>
       </c>
@@ -24415,7 +24409,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>45803</v>
       </c>
@@ -24481,7 +24475,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>45803</v>
       </c>
@@ -24539,7 +24533,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>45803</v>
       </c>
@@ -24597,7 +24591,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>45803</v>
       </c>
@@ -24655,7 +24649,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>45804</v>
       </c>
@@ -24716,7 +24710,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>45804</v>
       </c>
@@ -24782,7 +24776,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45804</v>
       </c>
@@ -24848,7 +24842,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>45804</v>
       </c>
@@ -24914,7 +24908,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>45804</v>
       </c>
@@ -24980,7 +24974,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>45804</v>
       </c>
@@ -25046,7 +25040,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>45804</v>
       </c>
@@ -25112,7 +25106,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>45805</v>
       </c>
@@ -25178,7 +25172,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>45805</v>
       </c>
@@ -25247,7 +25241,7 @@
         <v>100497979</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>45805</v>
       </c>
@@ -25316,7 +25310,7 @@
         <v>100497977</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>45805</v>
       </c>
@@ -25382,7 +25376,7 @@
         <v>100497973</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>45805</v>
       </c>
@@ -25451,7 +25445,7 @@
         <v>100498008</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>45807</v>
       </c>
@@ -25520,7 +25514,7 @@
         <v>100498362</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>45812</v>
       </c>
@@ -25589,7 +25583,7 @@
         <v>100498372</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>45813</v>
       </c>
@@ -25658,7 +25652,7 @@
         <v>100498373</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>45813</v>
       </c>
@@ -25724,7 +25718,7 @@
         <v>100498390</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>45813</v>
       </c>
@@ -25793,7 +25787,7 @@
         <v>100498370</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>45813</v>
       </c>
@@ -25859,7 +25853,7 @@
         <v>100498371</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>45813</v>
       </c>
@@ -25923,7 +25917,7 @@
         <v>100498400</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>45813</v>
       </c>
@@ -25992,7 +25986,7 @@
         <v>100498401</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>45813</v>
       </c>
@@ -26056,7 +26050,7 @@
         <v>100498378</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>45813</v>
       </c>
@@ -26119,7 +26113,7 @@
         <v>100498756</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>45817</v>
       </c>
@@ -26185,7 +26179,7 @@
         <v>100499018</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>45817</v>
       </c>
@@ -26251,7 +26245,7 @@
         <v>100499019</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>45819</v>
       </c>
@@ -26317,7 +26311,7 @@
         <v>100498599</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>45820</v>
       </c>
@@ -26383,7 +26377,7 @@
         <v>100499026</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>45821</v>
       </c>
@@ -26449,7 +26443,7 @@
         <v>100499032</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>45821</v>
       </c>
@@ -26515,7 +26509,7 @@
         <v>100499040</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>45821</v>
       </c>
@@ -26581,7 +26575,7 @@
         <v>100499031</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>45821</v>
       </c>
@@ -26647,7 +26641,7 @@
         <v>100499033</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>45821</v>
       </c>
@@ -26713,7 +26707,7 @@
         <v>100499030</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>45824</v>
       </c>
@@ -26779,7 +26773,7 @@
         <v>100499184</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>45824</v>
       </c>
@@ -26845,7 +26839,7 @@
         <v>100499185</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>45824</v>
       </c>
@@ -26911,7 +26905,7 @@
         <v>100499425</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>45824</v>
       </c>
@@ -26977,7 +26971,7 @@
         <v>100499423</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>45825</v>
       </c>
@@ -27041,7 +27035,7 @@
         <v>100499424</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>45825</v>
       </c>
@@ -27107,7 +27101,7 @@
         <v>100499526</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45825</v>
       </c>
@@ -27173,7 +27167,7 @@
         <v>100499527</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>45825</v>
       </c>
@@ -27239,7 +27233,7 @@
         <v>100499525</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>45826</v>
       </c>
@@ -27305,7 +27299,7 @@
         <v>100499528</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>45826</v>
       </c>
@@ -27371,7 +27365,7 @@
         <v>100499529</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>45826</v>
       </c>
@@ -27438,7 +27432,7 @@
         <v>100499892</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>45827</v>
       </c>
@@ -27504,7 +27498,7 @@
         <v>100499533</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>45827</v>
       </c>
@@ -27570,7 +27564,7 @@
         <v>100499531</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>45827</v>
       </c>
@@ -27636,7 +27630,7 @@
         <v>100499535</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>45828</v>
       </c>
@@ -27702,7 +27696,7 @@
         <v>100499542</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>45828</v>
       </c>
@@ -27768,7 +27762,7 @@
         <v>100499543</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>45828</v>
       </c>
@@ -27834,7 +27828,7 @@
         <v>100499544</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>45828</v>
       </c>
@@ -27900,7 +27894,7 @@
         <v>100499545</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>45828</v>
       </c>
@@ -27966,7 +27960,7 @@
         <v>100499538</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>45828</v>
       </c>
@@ -28032,7 +28026,7 @@
         <v>100499539</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>45828</v>
       </c>
@@ -28098,7 +28092,7 @@
         <v>100499540</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>45828</v>
       </c>
@@ -28164,7 +28158,7 @@
         <v>100499549</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>45828</v>
       </c>
@@ -28230,7 +28224,7 @@
         <v>100499547</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>45828</v>
       </c>
@@ -28296,7 +28290,7 @@
         <v>100499550</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>45828</v>
       </c>
@@ -28362,7 +28356,7 @@
         <v>100499551</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>45828</v>
       </c>
@@ -28428,7 +28422,7 @@
         <v>100499546</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>45831</v>
       </c>
@@ -28492,7 +28486,7 @@
         <v>100499899</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>45834</v>
       </c>
@@ -28558,7 +28552,7 @@
         <v>100500025</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>45834</v>
       </c>
@@ -28624,7 +28618,7 @@
         <v>100500031</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>45834</v>
       </c>
@@ -28690,7 +28684,7 @@
         <v>100500030</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>45835</v>
       </c>
@@ -28756,7 +28750,7 @@
         <v>100500618</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>45842</v>
       </c>
@@ -28816,7 +28810,7 @@
         <v>100500023</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>45842</v>
       </c>
@@ -28878,7 +28872,7 @@
         <v>100500619</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>45842</v>
       </c>
@@ -28944,7 +28938,7 @@
         <v>100500171</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>45842</v>
       </c>
@@ -29008,7 +29002,7 @@
         <v>100500172</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>45842</v>
       </c>
@@ -29072,7 +29066,7 @@
         <v>100500173</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>45843</v>
       </c>
@@ -29134,7 +29128,7 @@
         <v>100500034</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>45843</v>
       </c>
@@ -29200,7 +29194,7 @@
         <v>100500032</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>45843</v>
       </c>
@@ -29266,7 +29260,7 @@
         <v>100500587</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>45843</v>
       </c>
@@ -29332,7 +29326,7 @@
         <v>100500035</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>45843</v>
       </c>
@@ -29396,7 +29390,7 @@
         <v>100500033</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>45843</v>
       </c>
@@ -29457,7 +29451,7 @@
         <v>100500584</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>45845</v>
       </c>
@@ -29523,7 +29517,7 @@
         <v>100500640</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>45845</v>
       </c>
@@ -29589,7 +29583,7 @@
         <v>100500685</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>45845</v>
       </c>
@@ -29649,7 +29643,7 @@
         <v>100500686</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>45845</v>
       </c>
@@ -29712,7 +29706,7 @@
         <v>100500687</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>45845</v>
       </c>
@@ -29778,7 +29772,7 @@
         <v>100500660</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>45845</v>
       </c>
@@ -29844,7 +29838,7 @@
         <v>100500659</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>45845</v>
       </c>
@@ -29910,7 +29904,7 @@
         <v>100500662</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>45847</v>
       </c>
@@ -29976,7 +29970,7 @@
         <v>100500694</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>45848</v>
       </c>
@@ -30042,7 +30036,7 @@
         <v>100500695</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>45849</v>
       </c>
@@ -30108,7 +30102,7 @@
         <v>100500691</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>45849</v>
       </c>
@@ -30174,7 +30168,7 @@
         <v>100500689</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>45849</v>
       </c>
@@ -30240,7 +30234,7 @@
         <v>100501324</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>45849</v>
       </c>
@@ -30306,7 +30300,7 @@
         <v>100501326</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>45854</v>
       </c>
@@ -30368,7 +30362,7 @@
         <v>100501328</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>45854</v>
       </c>
@@ -30432,7 +30426,7 @@
         <v>100501327</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>45854</v>
       </c>
@@ -30496,7 +30490,7 @@
         <v>100501329</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>45854</v>
       </c>
@@ -30562,7 +30556,7 @@
         <v>100501235</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>45855</v>
       </c>
@@ -30626,7 +30620,7 @@
         <v>100501331</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>45854</v>
       </c>
@@ -30692,7 +30686,7 @@
         <v>100501330</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>45855</v>
       </c>
@@ -30758,7 +30752,7 @@
         <v>100501334</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>45855</v>
       </c>
@@ -30824,7 +30818,7 @@
         <v>100501762</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>45855</v>
       </c>
@@ -30890,7 +30884,7 @@
         <v>100501342</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>45856</v>
       </c>
@@ -30956,7 +30950,7 @@
         <v>100501346</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>45856</v>
       </c>
@@ -31022,7 +31016,7 @@
         <v>100501582</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>45856</v>
       </c>
@@ -31091,7 +31085,7 @@
         <v>100501348</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>45856</v>
       </c>
@@ -31157,7 +31151,7 @@
         <v>100501771</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>45856</v>
       </c>
@@ -31223,7 +31217,7 @@
         <v>100501770</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>45856</v>
       </c>
@@ -31289,7 +31283,7 @@
         <v>100501772</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>45859</v>
       </c>
@@ -31355,7 +31349,7 @@
         <v>100501769</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>45859</v>
       </c>
@@ -31421,7 +31415,7 @@
         <v>100501766</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>45859</v>
       </c>
@@ -31487,7 +31481,7 @@
         <v>100501774</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>45859</v>
       </c>
@@ -31553,7 +31547,7 @@
         <v>100501768</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>45859</v>
       </c>
@@ -31619,7 +31613,7 @@
         <v>100501780</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>45860</v>
       </c>
@@ -31688,7 +31682,7 @@
         <v>100502249</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>45860</v>
       </c>
@@ -31754,7 +31748,7 @@
         <v>100501776</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>45860</v>
       </c>
@@ -31818,7 +31812,7 @@
         <v>100501777</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>45860</v>
       </c>
@@ -31884,7 +31878,7 @@
         <v>100501778</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>45860</v>
       </c>
@@ -31950,7 +31944,7 @@
         <v>100501779</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>45856</v>
       </c>
@@ -32016,7 +32010,7 @@
         <v>100501782</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>45856</v>
       </c>
@@ -32082,7 +32076,7 @@
         <v>100501783</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>45859</v>
       </c>
@@ -32148,7 +32142,7 @@
         <v>100501788</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>45859</v>
       </c>
@@ -32214,7 +32208,7 @@
         <v>100501792</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>45859</v>
       </c>
@@ -32280,7 +32274,7 @@
         <v>100501786</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>45859</v>
       </c>
@@ -32346,7 +32340,7 @@
         <v>100501787</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>45859</v>
       </c>
@@ -32412,7 +32406,7 @@
         <v>100501789</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>45860</v>
       </c>
@@ -32478,7 +32472,7 @@
         <v>100501790</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>45860</v>
       </c>
@@ -32544,7 +32538,7 @@
         <v>100502250</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>45860</v>
       </c>
@@ -32610,7 +32604,7 @@
         <v>100502251</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>45860</v>
       </c>
@@ -32676,7 +32670,7 @@
         <v>100502252</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
         <v>45860</v>
       </c>
@@ -32742,7 +32736,7 @@
         <v>100502255</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
         <v>45863</v>
       </c>
@@ -32808,7 +32802,7 @@
         <v>100502283</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
         <v>45863</v>
       </c>
@@ -32874,7 +32868,7 @@
         <v>100502280</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
         <v>45863</v>
       </c>
@@ -32938,7 +32932,7 @@
         <v>100502259</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
         <v>45863</v>
       </c>
@@ -33004,7 +32998,7 @@
         <v>100502282</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>45861</v>
       </c>
@@ -33068,7 +33062,7 @@
         <v>100502253</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>45862</v>
       </c>
@@ -33135,7 +33129,7 @@
         <v>100503103</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
         <v>45862</v>
       </c>
@@ -33201,7 +33195,7 @@
         <v>100502789</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
         <v>45862</v>
       </c>
@@ -33264,7 +33258,7 @@
         <v>100502677</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>45864</v>
       </c>
@@ -33330,7 +33324,7 @@
         <v>100502281</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
         <v>45868</v>
       </c>
@@ -33396,7 +33390,7 @@
         <v>100502874</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
         <v>45869</v>
       </c>
@@ -33462,7 +33456,7 @@
         <v>100502793</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>45870</v>
       </c>
@@ -33528,7 +33522,7 @@
         <v>100502792</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>45870</v>
       </c>
@@ -33594,7 +33588,7 @@
         <v>100503020</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>45871</v>
       </c>
@@ -33666,7 +33660,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
         <v>45873</v>
       </c>
@@ -33735,7 +33729,7 @@
         <v>100502842</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
         <v>45873</v>
       </c>
@@ -33801,7 +33795,7 @@
         <v>100502843</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>45874</v>
       </c>
@@ -33870,7 +33864,7 @@
         <v>100502846</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>45874</v>
       </c>
@@ -33936,7 +33930,7 @@
         <v>100502847</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>45875</v>
       </c>
@@ -34002,7 +33996,7 @@
         <v>100502848</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>45875</v>
       </c>
@@ -34068,7 +34062,7 @@
         <v>100503350</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
         <v>45876</v>
       </c>
@@ -34137,7 +34131,7 @@
         <v>100503351</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
         <v>45876</v>
       </c>
@@ -34203,7 +34197,7 @@
         <v>100503359</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>45876</v>
       </c>
@@ -34269,7 +34263,7 @@
         <v>100503358</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>45876</v>
       </c>
@@ -34335,7 +34329,7 @@
         <v>100503356</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
         <v>45846</v>
       </c>
@@ -34401,7 +34395,7 @@
         <v>100503357</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
         <v>45877</v>
       </c>
@@ -34467,7 +34461,7 @@
         <v>100503363</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
         <v>45877</v>
       </c>
@@ -34533,7 +34527,7 @@
         <v>100503364</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
         <v>45877</v>
       </c>
@@ -34599,7 +34593,7 @@
         <v>100503365</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
         <v>45880</v>
       </c>
@@ -34665,7 +34659,7 @@
         <v>100503366</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
         <v>45880</v>
       </c>
@@ -34731,7 +34725,7 @@
         <v>100503367</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>45880</v>
       </c>
@@ -34797,7 +34791,7 @@
         <v>100503839</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
         <v>45881</v>
       </c>
@@ -34863,7 +34857,7 @@
         <v>100503960</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
         <v>45881</v>
       </c>
@@ -34932,7 +34926,7 @@
         <v>100503838</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
         <v>45882</v>
       </c>
@@ -34998,7 +34992,7 @@
         <v>100503968</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166" s="17">
         <v>45882</v>
       </c>
@@ -35067,7 +35061,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>45882</v>
       </c>
@@ -35136,7 +35130,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>45882</v>
       </c>
@@ -35205,7 +35199,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
         <v>45882</v>
       </c>
@@ -35274,7 +35268,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
         <v>45883</v>
       </c>
@@ -35343,7 +35337,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
         <v>45883</v>
       </c>
@@ -35412,7 +35406,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>45883</v>
       </c>
@@ -35481,7 +35475,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>45883</v>
       </c>
@@ -35547,7 +35541,7 @@
         <v>100504015</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
         <v>45884</v>
       </c>
@@ -35611,7 +35605,7 @@
         <v>100504151</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
         <v>45884</v>
       </c>
@@ -35675,7 +35669,7 @@
         <v>100504152</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" s="17">
         <v>45887</v>
       </c>
@@ -35744,7 +35738,7 @@
         <v>100504506</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
         <v>45888</v>
       </c>
@@ -35810,7 +35804,7 @@
         <v>100503990</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178" s="17">
         <v>45888</v>
       </c>
@@ -35876,7 +35870,7 @@
         <v>100503989</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179" s="17">
         <v>45888</v>
       </c>
@@ -35942,7 +35936,7 @@
         <v>100503988</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
         <v>45889</v>
       </c>
@@ -36008,7 +36002,7 @@
         <v>100503987</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
         <v>45889</v>
       </c>
@@ -36074,7 +36068,7 @@
         <v>100503991</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" s="17">
         <v>45889</v>
       </c>
@@ -36140,7 +36134,7 @@
         <v>100503985</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" s="17">
         <v>45889</v>
       </c>
@@ -36209,7 +36203,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" s="17">
         <v>45889</v>
       </c>
@@ -36275,7 +36269,7 @@
         <v>100503986</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" s="17">
         <v>45889</v>
       </c>
@@ -36344,7 +36338,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
         <v>45889</v>
       </c>
@@ -36413,7 +36407,7 @@
         <v>100504488</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" s="17">
         <v>45889</v>
       </c>
@@ -36479,7 +36473,7 @@
         <v>100504487</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" s="17">
         <v>45889</v>
       </c>
@@ -36545,7 +36539,7 @@
         <v>100504492</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
         <v>45890</v>
       </c>
@@ -36611,7 +36605,7 @@
         <v>100504493</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" s="17">
         <v>45890</v>
       </c>
@@ -36677,7 +36671,7 @@
         <v>100504495</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" s="17">
         <v>45890</v>
       </c>
@@ -36743,7 +36737,7 @@
         <v>100504494</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" s="17">
         <v>45890</v>
       </c>
@@ -36809,7 +36803,7 @@
         <v>100504499</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>45890</v>
       </c>
@@ -36875,7 +36869,7 @@
         <v>100504498</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
         <v>45890</v>
       </c>
@@ -36944,7 +36938,7 @@
         <v>100504497</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
         <v>45891</v>
       </c>
@@ -37010,7 +37004,7 @@
         <v>100504505</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
         <v>45891</v>
       </c>
@@ -37076,7 +37070,7 @@
         <v>100504504</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" s="17">
         <v>45891</v>
       </c>
@@ -37142,7 +37136,7 @@
         <v>100504503</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" s="17">
         <v>45891</v>
       </c>
@@ -37208,7 +37202,7 @@
         <v>100504502</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" s="17">
         <v>45891</v>
       </c>
@@ -37277,7 +37271,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" s="17">
         <v>45898</v>
       </c>
@@ -37346,7 +37340,7 @@
         <v>100505013</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" s="17">
         <v>45899</v>
       </c>
@@ -37412,7 +37406,7 @@
         <v>100505014</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" s="17">
         <v>45899</v>
       </c>
@@ -37481,7 +37475,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" s="17">
         <v>45899</v>
       </c>
@@ -37541,7 +37535,7 @@
         <v>100505018</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" s="17">
         <v>45891</v>
       </c>
@@ -37607,7 +37601,7 @@
         <v>100504500</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" s="17">
         <v>45891</v>
       </c>
@@ -37673,7 +37667,7 @@
         <v>100504507</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" s="17">
         <v>45891</v>
       </c>
@@ -37739,7 +37733,7 @@
         <v>100504508</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" s="17">
         <v>45891</v>
       </c>
@@ -37805,7 +37799,7 @@
         <v>100504993</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" s="17">
         <v>45896</v>
       </c>
@@ -37867,7 +37861,7 @@
         <v>100505002</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="17">
         <v>45897</v>
       </c>
@@ -37933,7 +37927,7 @@
         <v>100505451</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="17">
         <v>45901</v>
       </c>
@@ -37999,7 +37993,7 @@
         <v>100505022</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="17">
         <v>45902</v>
       </c>
@@ -38065,7 +38059,7 @@
         <v>100505023</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="17">
         <v>45887</v>
       </c>
@@ -38134,7 +38128,7 @@
         <v>100505005</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" s="17">
         <v>45887</v>
       </c>
@@ -38200,7 +38194,7 @@
         <v>100505003</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" s="17">
         <v>45887</v>
       </c>
@@ -38266,7 +38260,7 @@
         <v>100505004</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" s="17">
         <v>45908</v>
       </c>
@@ -38332,7 +38326,7 @@
         <v>100505791</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
         <v>45908</v>
       </c>
@@ -38398,7 +38392,7 @@
         <v>100505789</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="154.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:23" ht="42" x14ac:dyDescent="0.3">
       <c r="A217" s="17">
         <v>45903</v>
       </c>
@@ -38464,7 +38458,7 @@
         <v>100505790</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" s="17">
         <v>45904</v>
       </c>
@@ -38530,7 +38524,7 @@
         <v>100505800</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="17">
         <v>45909</v>
       </c>
@@ -38596,7 +38590,7 @@
         <v>100505794</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" s="17">
         <v>45909</v>
       </c>
@@ -38662,7 +38656,7 @@
         <v>100505795</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" s="17">
         <v>45909</v>
       </c>
@@ -38728,7 +38722,7 @@
         <v>100505798</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" s="17">
         <v>45909</v>
       </c>
@@ -38794,7 +38788,7 @@
         <v>100505793</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" s="17">
         <v>45910</v>
       </c>
@@ -38860,7 +38854,7 @@
         <v>100505799</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" s="17">
         <v>45911</v>
       </c>
@@ -38926,7 +38920,7 @@
         <v>100506249</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" s="17">
         <v>45911</v>
       </c>
@@ -38992,7 +38986,7 @@
         <v>100506250</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" s="17">
         <v>45911</v>
       </c>
@@ -39058,7 +39052,7 @@
         <v>100506251</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" s="17">
         <v>45911</v>
       </c>
@@ -39124,7 +39118,7 @@
         <v>100506253</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" s="17">
         <v>45912</v>
       </c>
@@ -39190,7 +39184,7 @@
         <v>100506252</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" s="17">
         <v>45912</v>
       </c>
@@ -39256,7 +39250,7 @@
         <v>100506254</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" s="17">
         <v>45912</v>
       </c>
@@ -39322,7 +39316,7 @@
         <v>1005066321</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" s="17">
         <v>45917</v>
       </c>
@@ -39388,7 +39382,7 @@
         <v>100506320</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" s="17">
         <v>45917</v>
       </c>
@@ -39454,7 +39448,7 @@
         <v>100507016</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" s="17">
         <v>45919</v>
       </c>
@@ -39520,7 +39514,7 @@
         <v>100506834</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" s="17">
         <v>45919</v>
       </c>
@@ -39586,7 +39580,7 @@
         <v>100506838</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" s="17">
         <v>45922</v>
       </c>
@@ -39652,7 +39646,7 @@
         <v>100506900</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" s="17">
         <v>45922</v>
       </c>
@@ -39718,7 +39712,7 @@
         <v>100506901</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" s="17">
         <v>45922</v>
       </c>
@@ -39784,7 +39778,7 @@
         <v>100506902</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" s="17">
         <v>45922</v>
       </c>
@@ -39850,7 +39844,7 @@
         <v>100506904</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" s="17">
         <v>45922</v>
       </c>
@@ -39916,7 +39910,7 @@
         <v>100506903</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" s="17">
         <v>45922</v>
       </c>
@@ -39976,7 +39970,7 @@
         <v>100506839</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" s="17">
         <v>45924</v>
       </c>
@@ -40045,7 +40039,7 @@
         <v>100507691</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
         <v>45925</v>
       </c>
@@ -40111,7 +40105,7 @@
         <v>100507379</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" s="17">
         <v>45925</v>
       </c>
@@ -40177,7 +40171,7 @@
         <v>100507375</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" s="17">
         <v>45926</v>
       </c>
@@ -40243,7 +40237,7 @@
         <v>100507441</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" s="17">
         <v>45926</v>
       </c>
@@ -40309,7 +40303,7 @@
         <v>100507442</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" s="17">
         <v>45926</v>
       </c>
@@ -40375,7 +40369,7 @@
         <v>100507443</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" s="17">
         <v>45927</v>
       </c>
@@ -40441,7 +40435,7 @@
         <v>100507444</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" s="17">
         <v>45927</v>
       </c>
@@ -40505,7 +40499,7 @@
         <v>100507449</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" s="17">
         <v>45927</v>
       </c>
@@ -40571,7 +40565,7 @@
         <v>100507447</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" s="17">
         <v>45927</v>
       </c>
@@ -40640,7 +40634,7 @@
         <v>100507451</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" s="17">
         <v>45930</v>
       </c>
@@ -40707,7 +40701,7 @@
         <v>100508269</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" s="17">
         <v>45930</v>
       </c>
@@ -40773,7 +40767,7 @@
         <v>100507446</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" s="17">
         <v>45930</v>
       </c>
@@ -40839,7 +40833,7 @@
         <v>100507751</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" s="17">
         <v>45931</v>
       </c>
@@ -40905,7 +40899,7 @@
         <v>100507756</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" s="17">
         <v>45931</v>
       </c>
@@ -40971,7 +40965,7 @@
         <v>100507753</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="17">
         <v>45932</v>
       </c>
@@ -41037,7 +41031,7 @@
         <v>100507754</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" s="17">
         <v>45932</v>
       </c>
@@ -41103,7 +41097,7 @@
         <v>100507757</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" s="17">
         <v>45932</v>
       </c>
@@ -41169,7 +41163,7 @@
         <v>100507755</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" s="17">
         <v>45932</v>
       </c>
@@ -41235,7 +41229,7 @@
         <v>100507964</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" s="17">
         <v>45932</v>
       </c>
@@ -41304,7 +41298,7 @@
         <v>100507960</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" s="17">
         <v>45933</v>
       </c>
@@ -41370,7 +41364,7 @@
         <v>100507962</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" s="17">
         <v>45933</v>
       </c>
@@ -41436,7 +41430,7 @@
         <v>1005077963</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" s="17">
         <v>45933</v>
       </c>
@@ -41502,7 +41496,7 @@
         <v>100507965</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" s="17">
         <v>45933</v>
       </c>
@@ -41571,7 +41565,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" s="17">
         <v>45933</v>
       </c>
@@ -41640,7 +41634,7 @@
         <v>100507969</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" s="17">
         <v>45933</v>
       </c>
@@ -41709,7 +41703,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" s="17">
         <v>45936</v>
       </c>
@@ -41778,7 +41772,7 @@
         <v>100507968</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" s="17">
         <v>45936</v>
       </c>
@@ -41844,7 +41838,7 @@
         <v>100507971</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" s="17">
         <v>45936</v>
       </c>
@@ -41913,7 +41907,7 @@
         <v>100507972</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" s="17">
         <v>45936</v>
       </c>
@@ -41982,7 +41976,7 @@
         <v>100508095</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" s="17">
         <v>45936</v>
       </c>
@@ -42051,7 +42045,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A272" s="17">
         <v>45936</v>
       </c>
@@ -42117,7 +42111,7 @@
         <v>100508660</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" s="17">
         <v>45937</v>
       </c>
@@ -42183,7 +42177,7 @@
         <v>100508724</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" s="17">
         <v>45937</v>
       </c>
@@ -42249,7 +42243,7 @@
         <v>100508720</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" s="17">
         <v>45937</v>
       </c>
@@ -42318,7 +42312,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276" s="17">
         <v>45938</v>
       </c>
@@ -42390,7 +42384,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277" s="17">
         <v>45938</v>
       </c>
@@ -42459,7 +42453,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278" s="17">
         <v>45938</v>
       </c>
@@ -42531,7 +42525,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279" s="17">
         <v>45939</v>
       </c>
@@ -42597,7 +42591,7 @@
         <v>100508736</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280" s="17">
         <v>45939</v>
       </c>
@@ -42652,7 +42646,7 @@
         <v>100508743</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281" s="17">
         <v>45939</v>
       </c>
@@ -42718,7 +42712,7 @@
         <v>100508741</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282" s="17">
         <v>45939</v>
       </c>
@@ -42784,7 +42778,7 @@
         <v>100508742</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283" s="17">
         <v>45939</v>
       </c>
@@ -42853,7 +42847,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284" s="17">
         <v>45947</v>
       </c>
@@ -42919,7 +42913,7 @@
         <v>100509185</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285" s="17">
         <v>45947</v>
       </c>
@@ -42985,7 +42979,7 @@
         <v>100509182</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286" s="17">
         <v>45947</v>
       </c>
@@ -43054,7 +43048,7 @@
         <v>100509186</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287" s="17">
         <v>45947</v>
       </c>
@@ -43120,7 +43114,7 @@
         <v>100509187</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288" s="17">
         <v>45950</v>
       </c>
@@ -43186,7 +43180,7 @@
         <v>100509188</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A289" s="17">
         <v>45950</v>
       </c>
@@ -43252,7 +43246,7 @@
         <v>100509475</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A290" s="17">
         <v>45951</v>
       </c>
@@ -43321,7 +43315,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A291" s="17">
         <v>45951</v>
       </c>
@@ -43387,7 +43381,7 @@
         <v>100509662</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A292" s="17">
         <v>45951</v>
       </c>
@@ -43453,7 +43447,7 @@
         <v>100509662</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A293" s="17">
         <v>45951</v>
       </c>
@@ -43519,7 +43513,7 @@
         <v>100509478</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A294" s="17">
         <v>45951</v>
       </c>
@@ -43585,7 +43579,7 @@
         <v>100509479</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" s="17">
         <v>45952</v>
       </c>
@@ -43654,7 +43648,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" s="17">
         <v>45952</v>
       </c>
@@ -43720,7 +43714,7 @@
         <v>100509668</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A297" s="17">
         <v>45952</v>
       </c>
@@ -43786,7 +43780,7 @@
         <v>100509669</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A298" s="17">
         <v>45953</v>
       </c>
@@ -43852,7 +43846,7 @@
         <v>100509671</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A299" s="17">
         <v>45953</v>
       </c>
@@ -43918,7 +43912,7 @@
         <v>100509672</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A300" s="17">
         <v>45953</v>
       </c>
@@ -43984,7 +43978,7 @@
         <v>100509673</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A301" s="17">
         <v>45954</v>
       </c>
@@ -44050,7 +44044,7 @@
         <v>100509670</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A302" s="17">
         <v>45954</v>
       </c>
@@ -44116,7 +44110,7 @@
         <v>100509677</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A303" s="17">
         <v>45955</v>
       </c>
@@ -44185,7 +44179,7 @@
         <v>100509678</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A304" s="17">
         <v>45955</v>
       </c>
@@ -44251,7 +44245,7 @@
         <v>100509676</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305" s="17">
         <v>45955</v>
       </c>
@@ -44317,7 +44311,7 @@
         <v>100509681</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306" s="17">
         <v>45955</v>
       </c>
@@ -44383,7 +44377,7 @@
         <v>100509682</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307" s="17">
         <v>45955</v>
       </c>
@@ -44449,7 +44443,7 @@
         <v>100509683</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308" s="17">
         <v>45955</v>
       </c>
@@ -44515,7 +44509,7 @@
         <v>100509684</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309" s="17">
         <v>45957</v>
       </c>
@@ -44584,7 +44578,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310" s="17">
         <v>45957</v>
       </c>
@@ -44653,7 +44647,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311" s="17">
         <v>45957</v>
       </c>
@@ -44719,7 +44713,7 @@
         <v>100510184</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312" s="17">
         <v>45957</v>
       </c>
@@ -44785,7 +44779,7 @@
         <v>100509687</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313" s="17">
         <v>45960</v>
       </c>
@@ -44851,7 +44845,7 @@
         <v>100510190</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314" s="17">
         <v>45959</v>
       </c>
@@ -44917,7 +44911,7 @@
         <v>100510889</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315" s="17">
         <v>45959</v>
       </c>
@@ -44982,7 +44976,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316" s="17">
         <v>45967</v>
       </c>
@@ -45051,7 +45045,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317" s="17">
         <v>45968</v>
       </c>
@@ -45120,7 +45114,7 @@
         <v>100511062</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318" s="17">
         <v>45972</v>
       </c>
@@ -45186,7 +45180,7 @@
         <v>100511063</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319" s="17">
         <v>45968</v>
       </c>
@@ -45252,7 +45246,7 @@
         <v>100511064</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320" s="17">
         <v>45971</v>
       </c>
@@ -45321,7 +45315,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A321" s="17">
         <v>45971</v>
       </c>
@@ -45387,7 +45381,7 @@
         <v>100511456</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A322" s="17">
         <v>45971</v>
       </c>
@@ -45456,7 +45450,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A323" s="17">
         <v>45971</v>
       </c>
@@ -45522,7 +45516,7 @@
         <v>100511067</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A324" s="17">
         <v>45971</v>
       </c>
@@ -45588,7 +45582,7 @@
         <v>100511068</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A325" s="17">
         <v>45971</v>
       </c>
@@ -45654,7 +45648,7 @@
         <v>100511069</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A326" s="17">
         <v>45971</v>
       </c>
@@ -45720,7 +45714,7 @@
         <v>100511070</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A327" s="17">
         <v>45972</v>
       </c>
@@ -45789,7 +45783,7 @@
         <v>100511482</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A328" s="17">
         <v>45972</v>
       </c>
@@ -45855,7 +45849,7 @@
         <v>100511490</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A329" s="17">
         <v>45973</v>
       </c>
@@ -45924,7 +45918,7 @@
         <v>100511484</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A330" s="17">
         <v>45973</v>
       </c>
@@ -45993,7 +45987,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A331" s="17">
         <v>45973</v>
       </c>
@@ -46062,7 +46056,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A332" s="17">
         <v>45973</v>
       </c>
@@ -46128,7 +46122,7 @@
         <v>100511487</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A333" s="17">
         <v>45973</v>
       </c>
@@ -46197,7 +46191,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A334" s="17">
         <v>45973</v>
       </c>
@@ -46263,7 +46257,7 @@
         <v>100511489</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A335" s="17">
         <v>45973</v>
       </c>
@@ -46329,7 +46323,7 @@
         <v>100511492</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A336" s="17">
         <v>45973</v>
       </c>
@@ -46395,7 +46389,7 @@
         <v>100511493</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A337" s="17">
         <v>45973</v>
       </c>
@@ -46461,7 +46455,7 @@
         <v>100511494</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A338" s="17">
         <v>45973</v>
       </c>
@@ -46524,7 +46518,7 @@
         <v>100511491</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A339" s="17">
         <v>45973</v>
       </c>
@@ -46593,7 +46587,7 @@
         <v>100511499</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A340" s="17">
         <v>45973</v>
       </c>
@@ -46659,7 +46653,7 @@
         <v>100511498</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A341" s="17">
         <v>45974</v>
       </c>
@@ -46728,7 +46722,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A342" s="17">
         <v>45974</v>
       </c>
@@ -46794,7 +46788,7 @@
         <v>100511521</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A343" s="17">
         <v>45974</v>
       </c>
@@ -46860,7 +46854,7 @@
         <v>100511522</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A344" s="17">
         <v>45974</v>
       </c>
@@ -46929,7 +46923,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A345" s="17">
         <v>45974</v>
       </c>
@@ -46998,7 +46992,7 @@
         <v>100511524</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A346" s="17">
         <v>45974</v>
       </c>
@@ -47064,7 +47058,7 @@
         <v>100511525</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A347" s="17">
         <v>45974</v>
       </c>
@@ -47133,7 +47127,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A348" s="17">
         <v>45975</v>
       </c>
@@ -47199,7 +47193,7 @@
         <v>100511491</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A349" s="17">
         <v>45975</v>
       </c>
@@ -47265,7 +47259,7 @@
         <v>100511724</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A350" s="17">
         <v>45975</v>
       </c>
@@ -47331,7 +47325,7 @@
         <v>100511725</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A351" s="17">
         <v>45979</v>
       </c>
@@ -47400,7 +47394,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A352" s="17">
         <v>45979</v>
       </c>
@@ -47466,7 +47460,7 @@
         <v>100511530</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A353" s="17">
         <v>45979</v>
       </c>
@@ -47532,7 +47526,7 @@
         <v>100511531</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A354" s="17">
         <v>45979</v>
       </c>
@@ -47598,7 +47592,7 @@
         <v>100511533</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A355" s="17">
         <v>45979</v>
       </c>
@@ -47662,7 +47656,7 @@
         <v>100511534</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A356" s="17">
         <v>45980</v>
       </c>
@@ -47728,7 +47722,7 @@
         <v>100512014</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A357" s="17">
         <v>45981</v>
       </c>
@@ -47794,7 +47788,7 @@
         <v>100512081</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A358" s="17">
         <v>45990</v>
       </c>
@@ -47860,7 +47854,7 @@
         <v>100512080</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A359" s="17">
         <v>45990</v>
       </c>
@@ -47926,7 +47920,7 @@
         <v>100512089</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A360" s="17">
         <v>45982</v>
       </c>
@@ -47995,7 +47989,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A361" s="17">
         <v>45985</v>
       </c>
@@ -48046,7 +48040,7 @@
         <v>100512776</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A362" s="17">
         <v>45985</v>
       </c>
@@ -48097,7 +48091,7 @@
         <v>100512775</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A363" s="17">
         <v>45985</v>
       </c>
@@ -48163,7 +48157,7 @@
         <v>100512805</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A364" s="17">
         <v>45985</v>
       </c>
@@ -48229,7 +48223,7 @@
         <v>100512437</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A365" s="17">
         <v>45985</v>
       </c>
@@ -48295,7 +48289,7 @@
         <v>100512438</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A366" s="17">
         <v>45986</v>
       </c>
@@ -48361,7 +48355,7 @@
         <v>100512701</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A367" s="17">
         <v>45986</v>
       </c>
@@ -48427,7 +48421,7 @@
         <v>100513019</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A368" s="17">
         <v>45988</v>
       </c>
@@ -48488,7 +48482,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" s="17">
         <v>45988</v>
       </c>
@@ -48554,7 +48548,7 @@
         <v>100512705</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" s="17">
         <v>45989</v>
       </c>
@@ -48620,7 +48614,7 @@
         <v>100512713</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" s="17">
         <v>45966</v>
       </c>
@@ -48686,7 +48680,7 @@
         <v>100510957</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" s="17">
         <v>45966</v>
       </c>
@@ -48752,7 +48746,7 @@
         <v>100510956</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" s="17">
         <v>45989</v>
       </c>
@@ -48818,7 +48812,7 @@
         <v>100512714</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" s="17">
         <v>45989</v>
       </c>
@@ -48884,7 +48878,7 @@
         <v>100512715</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" s="17">
         <v>45989</v>
       </c>
@@ -48950,7 +48944,7 @@
         <v>100512718</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" s="17">
         <v>45989</v>
       </c>
@@ -49016,7 +49010,7 @@
         <v>100513589</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" s="17">
         <v>45989</v>
       </c>
@@ -49082,7 +49076,7 @@
         <v>100513590</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" s="17">
         <v>45990</v>
       </c>
@@ -49145,7 +49139,7 @@
         <v>100513591</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" s="17">
         <v>45992</v>
       </c>
@@ -49211,7 +49205,7 @@
         <v>100513592</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" s="17">
         <v>45992</v>
       </c>
@@ -49277,7 +49271,7 @@
         <v>100513596</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" s="17">
         <v>45992</v>
       </c>
@@ -49340,7 +49334,7 @@
         <v>100512743</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" s="17">
         <v>45994</v>
       </c>
@@ -49406,7 +49400,7 @@
         <v>100513639</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" s="17">
         <v>45994</v>
       </c>
@@ -49472,7 +49466,7 @@
         <v>100513640</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" s="17">
         <v>45994</v>
       </c>
@@ -49538,7 +49532,7 @@
         <v>100513641</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A385" s="17">
         <v>45994</v>
       </c>
@@ -49604,7 +49598,7 @@
         <v>100513642</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A386" s="17">
         <v>45994</v>
       </c>
@@ -49670,7 +49664,7 @@
         <v>100513643</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A387" s="17">
         <v>45995</v>
       </c>
@@ -49739,7 +49733,7 @@
         <v>100513986</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A388" s="17">
         <v>45995</v>
       </c>
@@ -49805,7 +49799,7 @@
         <v>100513987</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A389" s="17">
         <v>45995</v>
       </c>
@@ -49871,7 +49865,7 @@
         <v>100513988</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A390" s="17">
         <v>45995</v>
       </c>
@@ -49937,7 +49931,7 @@
         <v>100513989</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A391" s="17">
         <v>45995</v>
       </c>
@@ -50004,7 +49998,7 @@
         <v>100513990</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" s="17">
         <v>45995</v>
       </c>
@@ -50070,7 +50064,7 @@
         <v>100513991</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" s="17">
         <v>45995</v>
       </c>
@@ -50139,7 +50133,7 @@
         <v>100513996</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" s="17">
         <v>45995</v>
       </c>
@@ -50208,7 +50202,7 @@
         <v>100513997</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" s="17">
         <v>45996</v>
       </c>
@@ -50274,7 +50268,7 @@
         <v>100513998</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" s="17">
         <v>45996</v>
       </c>
@@ -50340,7 +50334,7 @@
         <v>100513999</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A397" s="17">
         <v>45996</v>
       </c>
@@ -50387,7 +50381,7 @@
         <v>100513995</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A398" s="17">
         <v>45996</v>
       </c>
@@ -50434,7 +50428,7 @@
         <v>100514040</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A399" s="17">
         <v>45996</v>
       </c>
@@ -50481,7 +50475,7 @@
         <v>100514041</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A400" s="17">
         <v>45996</v>
       </c>
@@ -50547,7 +50541,7 @@
         <v>100514244</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A401" s="17">
         <v>45996</v>
       </c>
@@ -50613,7 +50607,7 @@
         <v>100514245</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A402" s="17">
         <v>45996</v>
       </c>
@@ -50682,7 +50676,7 @@
         <v>100513992</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A403" s="17">
         <v>45996</v>
       </c>
@@ -50751,7 +50745,7 @@
         <v>100513993</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A404" s="17">
         <v>45996</v>
       </c>
@@ -50820,7 +50814,7 @@
         <v>100513994</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405" s="17">
         <v>45999</v>
       </c>
@@ -50886,7 +50880,7 @@
         <v>100514246</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A406" s="17">
         <v>45999</v>
       </c>
@@ -50952,7 +50946,7 @@
         <v>100514162</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" s="17">
         <v>45999</v>
       </c>
@@ -51018,7 +51012,7 @@
         <v>100514117</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" s="17">
         <v>45999</v>
       </c>
@@ -51087,7 +51081,7 @@
         <v>100514118</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" s="17">
         <v>45999</v>
       </c>
@@ -51153,7 +51147,7 @@
         <v>100514119</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" s="17">
         <v>45999</v>
       </c>
@@ -51222,7 +51216,7 @@
         <v>100514160</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" s="17">
         <v>45999</v>
       </c>
@@ -51288,7 +51282,7 @@
         <v>100514116</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A412" s="17">
         <v>46000</v>
       </c>
@@ -51357,7 +51351,7 @@
         <v>100514165</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413" s="17">
         <v>46002</v>
       </c>
@@ -51423,7 +51417,7 @@
         <v>100514172</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A414" s="17">
         <v>46006</v>
       </c>
@@ -51476,7 +51470,7 @@
         <v>100514173</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A415" s="17">
         <v>46007</v>
       </c>
@@ -51542,7 +51536,7 @@
         <v>100514552</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A416" s="17">
         <v>46009</v>
       </c>
@@ -51608,7 +51602,7 @@
         <v>100514602</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A417" s="17">
         <v>46009</v>
       </c>
@@ -51674,7 +51668,7 @@
         <v>100514601</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="17">
         <v>46009</v>
       </c>
@@ -51740,7 +51734,7 @@
         <v>100514600</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="28" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A419" s="17">
         <v>46009</v>
       </c>
